--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5A6C1-7A99-4E13-A82B-F2F81B93D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716DE80-0150-47FD-AD86-56CB8924BC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Version</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>Jun 26, 2025</t>
+  </si>
+  <si>
+    <t>6.9.6</t>
+  </si>
+  <si>
+    <t>Oct 25, 2025</t>
+  </si>
+  <si>
+    <t>Oct 25. 2025</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/Ulm1MD0rN8k%2BK2JiEaeoQU5vVoj2hZ%2BkGjgrB4mh9L5HxLLzEtwLIeRD%2B57%2Bcrj0a4TPOlWxddO%2FpncQxBkvnx5cKwNpIdPtWmNAh%2FPRhEV2bwl02rf9RPuNL9dC2LTRhZ4v3c8j2TGXZfs%3D?filename=arcaea_6.9.7c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1_KOpLCCNM4XKujxrd0gBWw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.7c.apk</t>
   </si>
 </sst>
 </file>
@@ -669,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,61 +723,61 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -773,211 +791,245 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>

--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716DE80-0150-47FD-AD86-56CB8924BC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D8B798-C505-498B-AFA3-98F3E8F8E1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Version</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.7c.apk</t>
+  </si>
+  <si>
+    <t>6.9.7</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,7 +726,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>

--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D8B798-C505-498B-AFA3-98F3E8F8E1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DEECC-FE06-4CBC-BBC1-802CA9668250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Version</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Oct 25, 2025</t>
-  </si>
-  <si>
-    <t>Oct 25. 2025</t>
   </si>
   <si>
     <t>https://arcaea-static.lowiro-cdn.net/Ulm1MD0rN8k%2BK2JiEaeoQU5vVoj2hZ%2BkGjgrB4mh9L5HxLLzEtwLIeRD%2B57%2Bcrj0a4TPOlWxddO%2FpncQxBkvnx5cKwNpIdPtWmNAh%2FPRhEV2bwl02rf9RPuNL9dC2LTRhZ4v3c8j2TGXZfs%3D?filename=arcaea_6.9.7c.apk</t>
@@ -693,8 +690,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,19 +723,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -797,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>

--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DEECC-FE06-4CBC-BBC1-802CA9668250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FEC7C0-1F97-4110-A1F4-242DEF75004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Version</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t>6.9.7</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.10.0c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1g1aCPpn7rRTSKCo7hn1hAg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/m8ydHyKyNMUL8BFd1VGVd%2BsmVd5B3nxGQYRgnuV7V5fQaACEw7HxY8xDnq%2FBkfCbgOmEgO1NuoglhboS4gfRcuwolqL7Q42Wfhz5N9rwnV70DV8CKVlBuP0sb3kXNm5NB2EldNN49s3gFWRcaQ%3D%3D?filename=arcaea_6.10.0c.apk</t>
+  </si>
+  <si>
+    <t>6.10.0</t>
+  </si>
+  <si>
+    <t>Oct 30, 2025</t>
   </si>
 </sst>
 </file>
@@ -687,11 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,315 +738,333 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7E00D833-903C-41B8-BC79-728E4760771F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FEC7C0-1F97-4110-A1F4-242DEF75004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C314D-6554-432E-89B5-21AAFDAA1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,21 +119,6 @@
     <t>https://pan.baidu.com/s/1t1BiCr9FsTYnZgRXnE-SgA?pwd=1234</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.5c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.3c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.1c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.0c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.4c.apk</t>
-  </si>
-  <si>
     <t>6.8.1</t>
   </si>
   <si>
@@ -209,33 +194,6 @@
     <t>https://pan.baidu.com/s/1ZJBdI1R5XIy1MGc6G_DG3Q?pwd=1234</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.2c_3.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.2c_2.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.2c_1.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.1c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.8.0c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.7.1c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.7.0c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.6.1c.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.6.0c.apk</t>
-  </si>
-  <si>
     <t>Sep 7. 2025</t>
   </si>
   <si>
@@ -272,15 +230,9 @@
     <t>https://pan.baidu.com/s/1_KOpLCCNM4XKujxrd0gBWw?pwd=1234</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.9.7c.apk</t>
-  </si>
-  <si>
     <t>6.9.7</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/Arcaea/arcaea_6.10.0c.apk</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1g1aCPpn7rRTSKCo7hn1hAg?pwd=1234</t>
   </si>
   <si>
@@ -291,6 +243,54 @@
   </si>
   <si>
     <t>Oct 30, 2025</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.0c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.7c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.5c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.6.0c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.6.1c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.7.0c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.7.1c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.0c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.1c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_1.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.1c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.3c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.0c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.4c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_3.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_2.apk</t>
   </si>
 </sst>
 </file>
@@ -360,13 +360,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,8 +706,8 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +716,7 @@
     <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="238.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -738,44 +739,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -787,7 +788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -800,8 +801,8 @@
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
+      <c r="E5" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -821,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -834,8 +835,8 @@
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
+      <c r="E7" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -855,7 +856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,11 +869,11 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -885,11 +886,11 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -902,169 +903,183 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{7E00D833-903C-41B8-BC79-728E4760771F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{81ABF388-B16C-4E08-9604-C98E3AB6CA81}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{0D5526F8-16C8-4F14-8FAC-1993D133A00D}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{5CA421FE-F43D-44DE-8655-DF14A7DAE6F3}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{DE9D6FB5-F1A1-4FBF-94F4-4CCE65A150D7}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{324B4248-AB6A-4A69-A5EB-E9E904913C6D}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{B9352F48-7939-4D4E-A4A5-579180854C29}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{69197BA9-129D-4741-8F81-8E76D18D5852}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{BCDB2CC6-182C-4F95-9093-3F84B77D0CA1}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{92488FD4-66CA-4F78-809C-72E775FA39A2}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{A958097A-2B63-4086-809D-B35E6211DA02}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{716A234D-EC4B-4040-9C5B-453C20645C20}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{5F29FED1-28B3-4369-B81A-810FE5F7534B}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{D3FA0A4E-9E52-4366-A7D8-3D812711EC21}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{C7B7CF78-15DD-4EDA-8DA0-D4FF356D9F64}"/>
+    <hyperlink ref="E13" r:id="rId16" xr:uid="{310CAE47-0E13-4C51-8ED1-6E3EA68FBBC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C314D-6554-432E-89B5-21AAFDAA1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF4729-F783-4578-A247-5DDA0899B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>Version</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_2.apk</t>
+  </si>
+  <si>
+    <t>6.10.1</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.1c.apk</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/FtKVLO4JwxcPMOLZ2QAcz0Ljdp6XbzBqjMcxIk1cdWofgSfnLAEp1V%2F8iYR2Xwm7jGyb0l4ic0fnn8l4dCAljxljYX0tj38TMHol4MnmKIAJXDrwMg67JBEZVbYgSQw7ncbU1WOLdTbuSiQThw%3D%3D?filename=arcaea_6.10.1c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1WIyfhmobGjUflom6ecdQoQ?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -360,14 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,347 +750,366 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{81ABF388-B16C-4E08-9604-C98E3AB6CA81}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{0D5526F8-16C8-4F14-8FAC-1993D133A00D}"/>
-    <hyperlink ref="E20" r:id="rId4" xr:uid="{5CA421FE-F43D-44DE-8655-DF14A7DAE6F3}"/>
-    <hyperlink ref="E19" r:id="rId5" xr:uid="{DE9D6FB5-F1A1-4FBF-94F4-4CCE65A150D7}"/>
-    <hyperlink ref="E18" r:id="rId6" xr:uid="{324B4248-AB6A-4A69-A5EB-E9E904913C6D}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{B9352F48-7939-4D4E-A4A5-579180854C29}"/>
-    <hyperlink ref="E16" r:id="rId8" xr:uid="{69197BA9-129D-4741-8F81-8E76D18D5852}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{BCDB2CC6-182C-4F95-9093-3F84B77D0CA1}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{92488FD4-66CA-4F78-809C-72E775FA39A2}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{A958097A-2B63-4086-809D-B35E6211DA02}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{716A234D-EC4B-4040-9C5B-453C20645C20}"/>
-    <hyperlink ref="E10" r:id="rId13" xr:uid="{5F29FED1-28B3-4369-B81A-810FE5F7534B}"/>
-    <hyperlink ref="E11" r:id="rId14" xr:uid="{D3FA0A4E-9E52-4366-A7D8-3D812711EC21}"/>
-    <hyperlink ref="E12" r:id="rId15" xr:uid="{C7B7CF78-15DD-4EDA-8DA0-D4FF356D9F64}"/>
-    <hyperlink ref="E13" r:id="rId16" xr:uid="{310CAE47-0E13-4C51-8ED1-6E3EA68FBBC5}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{81ABF388-B16C-4E08-9604-C98E3AB6CA81}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{0D5526F8-16C8-4F14-8FAC-1993D133A00D}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{5CA421FE-F43D-44DE-8655-DF14A7DAE6F3}"/>
+    <hyperlink ref="E20" r:id="rId5" xr:uid="{DE9D6FB5-F1A1-4FBF-94F4-4CCE65A150D7}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{324B4248-AB6A-4A69-A5EB-E9E904913C6D}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{B9352F48-7939-4D4E-A4A5-579180854C29}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{69197BA9-129D-4741-8F81-8E76D18D5852}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{BCDB2CC6-182C-4F95-9093-3F84B77D0CA1}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{92488FD4-66CA-4F78-809C-72E775FA39A2}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{A958097A-2B63-4086-809D-B35E6211DA02}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{716A234D-EC4B-4040-9C5B-453C20645C20}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{5F29FED1-28B3-4369-B81A-810FE5F7534B}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{D3FA0A4E-9E52-4366-A7D8-3D812711EC21}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{C7B7CF78-15DD-4EDA-8DA0-D4FF356D9F64}"/>
+    <hyperlink ref="E14" r:id="rId16" xr:uid="{310CAE47-0E13-4C51-8ED1-6E3EA68FBBC5}"/>
+    <hyperlink ref="E2" r:id="rId17" xr:uid="{FBD0D15C-7460-41A9-B61D-CCDB1B0D9970}"/>
+    <hyperlink ref="D2" r:id="rId18" xr:uid="{DECAF5A4-4152-4C43-A699-8A09C1081A6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF4729-F783-4578-A247-5DDA0899B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA286E-3578-477E-A8BA-1AD9E63D6717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Version</t>
   </si>
@@ -303,6 +303,21 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1WIyfhmobGjUflom6ecdQoQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.3c.apk</t>
+  </si>
+  <si>
+    <t>Nov 3, 2025</t>
+  </si>
+  <si>
+    <t>6.10.3</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/RD5%2BFScqbahOLT%2F7ZFwTRII4XuQYPJtnF9K%2BGE6v%2B4%2FovoBDzejDYwOrMuPeU4JDqa%2BbuPmuQrTGZh2T1yIcRZMTUoPrsCcSPoO1TFnG56SnI%2F2X440gxXZiUNEtQMMQPV%2Fh4K%2FEtwQsfgLP3g%3D%3D?filename=arcaea_6.10.3c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13TA12oCizIw8HlHl0_wq3A?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -372,13 +387,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -714,18 +730,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="238.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="247.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
@@ -750,366 +766,366 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{81ABF388-B16C-4E08-9604-C98E3AB6CA81}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{0D5526F8-16C8-4F14-8FAC-1993D133A00D}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{5CA421FE-F43D-44DE-8655-DF14A7DAE6F3}"/>
-    <hyperlink ref="E20" r:id="rId5" xr:uid="{DE9D6FB5-F1A1-4FBF-94F4-4CCE65A150D7}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{324B4248-AB6A-4A69-A5EB-E9E904913C6D}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{B9352F48-7939-4D4E-A4A5-579180854C29}"/>
-    <hyperlink ref="E17" r:id="rId8" xr:uid="{69197BA9-129D-4741-8F81-8E76D18D5852}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{BCDB2CC6-182C-4F95-9093-3F84B77D0CA1}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{92488FD4-66CA-4F78-809C-72E775FA39A2}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{A958097A-2B63-4086-809D-B35E6211DA02}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{716A234D-EC4B-4040-9C5B-453C20645C20}"/>
-    <hyperlink ref="E11" r:id="rId13" xr:uid="{5F29FED1-28B3-4369-B81A-810FE5F7534B}"/>
-    <hyperlink ref="E12" r:id="rId14" xr:uid="{D3FA0A4E-9E52-4366-A7D8-3D812711EC21}"/>
-    <hyperlink ref="E13" r:id="rId15" xr:uid="{C7B7CF78-15DD-4EDA-8DA0-D4FF356D9F64}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{310CAE47-0E13-4C51-8ED1-6E3EA68FBBC5}"/>
-    <hyperlink ref="E2" r:id="rId17" xr:uid="{FBD0D15C-7460-41A9-B61D-CCDB1B0D9970}"/>
-    <hyperlink ref="D2" r:id="rId18" xr:uid="{DECAF5A4-4152-4C43-A699-8A09C1081A6F}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA286E-3578-477E-A8BA-1AD9E63D6717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D12CCD0-36F5-443F-A253-19B65DB41CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,9 +308,6 @@
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.3c.apk</t>
   </si>
   <si>
-    <t>Nov 3, 2025</t>
-  </si>
-  <si>
     <t>6.10.3</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/13TA12oCizIw8HlHl0_wq3A?pwd=1234</t>
+  </si>
+  <si>
+    <t>Nov 2, 2025</t>
   </si>
 </sst>
 </file>
@@ -387,14 +387,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,8 +732,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,18 +765,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -791,10 +790,10 @@
       <c r="C3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -828,7 +827,7 @@
       <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -862,7 +861,7 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -896,7 +895,7 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -930,7 +929,7 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -947,7 +946,7 @@
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -964,7 +963,7 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -981,7 +980,7 @@
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -998,7 +997,7 @@
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1015,7 +1014,7 @@
       <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1032,7 +1031,7 @@
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1049,7 +1048,7 @@
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1066,7 +1065,7 @@
       <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1083,7 +1082,7 @@
       <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1100,7 +1099,7 @@
       <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1117,7 +1116,7 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
     </row>

--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D12CCD0-36F5-443F-A253-19B65DB41CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7DBC1-F16F-481D-A9E4-01582C8D5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Version</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Oct 14, 2025</t>
   </si>
   <si>
-    <t>6.9.4</t>
-  </si>
-  <si>
-    <t>6.9.2</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -131,24 +125,6 @@
     <t>6.7.0</t>
   </si>
   <si>
-    <t>6.8.2_3</t>
-  </si>
-  <si>
-    <t>6.8.2_2</t>
-  </si>
-  <si>
-    <t>6.8.2_1</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1a-Z7xRaIL_jQXl1yXrO6xw?pwd=1234</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1hEust2y9lRSqzytwj2DnGw?pwd=1234</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/14dBO3m9WRid0u4GNHwbu2A?pwd=1234</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1CQhZJXfyP2oBNGuMrXNpQw?pwd=1234</t>
   </si>
   <si>
@@ -161,12 +137,6 @@
     <t>https://pan.baidu.com/s/1bWmVjNHcJtQ_7Jum9RiulA?pwd=1234</t>
   </si>
   <si>
-    <t>https://arcaea-static.lowiro-cdn.net/QyzLJrrUpstku0EwifX7genroAiFOz8rMBSjjwmIOPhsV7djwrv%2BHt%2BYkd07uEF3L1VoSEmVFz1TpD%2B7xJrPqWNJ5BoNKJihzNOVZYrxwGkTEgkEEm4v1Ieh6%2BAEBvJIPtWDgZrpI28tRaY%3D?filename=arcaea_6.8.2c.apk</t>
-  </si>
-  <si>
-    <t>https://arcaea-static.lowiro-cdn.net/JpT4PPAiB2Sh99ALcjkoWqs%2Fu4OL6dqpj%2FQKONKyqhlF2OUnxfssztkQn0fYQuAdjjEtv5fsfzKMxn0M0KSUpGnb5Wt6E%2FtRQPedCr5k4sERSrjGzW20F%2BW8G%2FhuM82HwiGCfvm0fDTkesM%3D?filename=arcaea_6.8.2c.apk</t>
-  </si>
-  <si>
     <t>https://arcaea-static.lowiro-cdn.net/X8zlPRgN0CRl1N7vNUf4dhiTgzuseZyQkcm0a%2F5fLfN4G3VUCuK%2F9KGrNpkUqEtdd2i9zAUt%2Fg1J5fznKYltAgD3VGP02JDuJ80CT%2BU5ZRUp1SqQO6tmKywi%2F4MMK%2F18YGzSXUuO2JEN9sU%3D?filename=arcaea_6.8.2c.apk</t>
   </si>
   <si>
@@ -194,12 +164,6 @@
     <t>https://pan.baidu.com/s/1ZJBdI1R5XIy1MGc6G_DG3Q?pwd=1234</t>
   </si>
   <si>
-    <t>Sep 7. 2025</t>
-  </si>
-  <si>
-    <t>Sep 6, 2025</t>
-  </si>
-  <si>
     <t>Sep 3, 2025</t>
   </si>
   <si>
@@ -218,9 +182,6 @@
     <t>Jun 26, 2025</t>
   </si>
   <si>
-    <t>6.9.6</t>
-  </si>
-  <si>
     <t>Oct 25, 2025</t>
   </si>
   <si>
@@ -272,9 +233,6 @@
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.1c.apk</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_1.apk</t>
-  </si>
-  <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.9.1c.apk</t>
   </si>
   <si>
@@ -287,12 +245,6 @@
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.4c.apk</t>
   </si>
   <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_3.apk</t>
-  </si>
-  <si>
-    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c_2.apk</t>
-  </si>
-  <si>
     <t>6.10.1</t>
   </si>
   <si>
@@ -318,6 +270,30 @@
   </si>
   <si>
     <t>Nov 2, 2025</t>
+  </si>
+  <si>
+    <t>6.10.5</t>
+  </si>
+  <si>
+    <t>Nov 6, 2025</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.5c.apk</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/JMRuNFwy%2FSj6vyJ5tim%2BJepa0Isz4wBA3D7uhkoHHZtVI5rx1cV9E39jjTPUFATLPm0%2FDqMuc4huxIQ6gvawS5AdDJjYzwjMBm5CKFmurFkJJchbZ172Aj%2FP9CY1eG%2BtTYqzyP4Xh1MWvuztMw%3D%3D?filename=arcaea_6.10.5c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1TOJxBl9xEGBxNxMDNFtAUg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-pKjmy5M8Y1umPa3uCmMoA?pwd=1234</t>
+  </si>
+  <si>
+    <t>6.8.2</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c.apk</t>
   </si>
 </sst>
 </file>
@@ -387,13 +363,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -765,87 +742,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -856,275 +833,209 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7DBC1-F16F-481D-A9E4-01582C8D5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306B5E2-FAB3-4C16-968B-0FD318C99C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Version</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.8.2c.apk</t>
+  </si>
+  <si>
+    <t>6.10.7</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1K2_C3oNazi0NWbS3mc1mzA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/MCc6eLQGVLwz8U5EYvbTVw2WFwd7QyqxZxP3IoGnNujxK98yJF1ytJ79esigUzVDM0Gnj%2F2wVf8QXntkvchwRzB4201%2FDfIvlmVrYTrGqmHadMXlfxcLNF2P5JhwAmwFLlrmVTDKn6iuFqDQ3A%3D%3D?filename=arcaea_6.10.7c.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.7c.apk</t>
+  </si>
+  <si>
+    <t>Nov 21, 2025</t>
   </si>
 </sst>
 </file>
@@ -706,24 +721,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="11.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="247.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="5"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="246.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -740,300 +755,317 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>

--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306B5E2-FAB3-4C16-968B-0FD318C99C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509D223-12FA-4FFA-8D27-1235665B32D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Version</t>
   </si>
@@ -309,6 +309,21 @@
   </si>
   <si>
     <t>Nov 21, 2025</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk</t>
+  </si>
+  <si>
+    <t>6.10.8</t>
+  </si>
+  <si>
+    <t>Nov 22, 2025</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/W%2BnnVknecw781ebNoumkJVBa24QcjdQTSSP5BvVL96eFzjXDGnIrdQnYCAtliSkcTl5IFLlxp3hZ3hVKngqAwb0K%2B%2BdE3k0QFkCM1kkK%2FOkxVqUw9ZoY%2FYs8W63Q9Il2NwPddjPFzESsT31U3w%3D%3D?filename=arcaea_6.10.8c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13S06Im0ntk0AdK41c3o6PA?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -721,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,317 +772,335 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509D223-12FA-4FFA-8D27-1235665B32D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F7FE8-0071-419B-A26F-B3A88ACEA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Version</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/13S06Im0ntk0AdK41c3o6PA?pwd=1234</t>
+  </si>
+  <si>
+    <t>6.10.9</t>
+  </si>
+  <si>
+    <t>Nov 26, 2025</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.9c.apk</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/OYElamVOfREVJjEPFCpK1yWDznDPRT41OVePxkTaNQeqv6ngy66a6OpnFg9rhCoWBFstwbat%2B1WhVQz%2BmenMYn52yC24r2D6ye8JlwtA121JYJiuWnrpuR1PGIliITxAARAzXNHhT7uUrnOs6w%3D%3D?filename=arcaea_6.10.9c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1VCSBgtdL5F6pKBFOGeuG7w?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -393,14 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,20 +750,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="5"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="246.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
@@ -772,335 +786,353 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{0D946CF6-97B9-4C33-A8D2-DE7309CE04A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F7FE8-0071-419B-A26F-B3A88ACEA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C0B91-D856-442C-9248-524B52899F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>Version</t>
   </si>
@@ -339,6 +339,21 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1VCSBgtdL5F6pKBFOGeuG7w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.11.0c.apk</t>
+  </si>
+  <si>
+    <t>Nov 27, 2025</t>
+  </si>
+  <si>
+    <t>6.11.0</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/crynt2XfklxIuX5V1iUTSN1Tr9lKo3R7pFLBMh4vx2Hwui%2Fe%2BlOkArdTSMW8kCGPbHfJu%2BUzm1A12FWdWsIAdc2tNe0hNJ1EJbB%2FBIsMwC0SFxrCocbbP7CGsPQ9SY4i%2F5pDR536eP%2BZ06vzIg%3D%3D?filename=arcaea_6.11.0c.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Zdp3UKb_rHZx3Jj2TAMtCg?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -750,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,353 +801,371 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
-    <hyperlink ref="E15" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{0D946CF6-97B9-4C33-A8D2-DE7309CE04A9}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E16" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{0D946CF6-97B9-4C33-A8D2-DE7309CE04A9}"/>
+    <hyperlink ref="E2" r:id="rId6" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{E3F5BC1A-FBA3-4F72-83BD-6393725AFE4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
--- a/arcaea.xlsx
+++ b/arcaea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C0B91-D856-442C-9248-524B52899F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120F63B-6CD3-4D4C-A745-F2CB2D6C3A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>Version</t>
   </si>
@@ -347,13 +347,25 @@
     <t>Nov 27, 2025</t>
   </si>
   <si>
-    <t>6.11.0</t>
-  </si>
-  <si>
     <t>https://arcaea-static.lowiro-cdn.net/crynt2XfklxIuX5V1iUTSN1Tr9lKo3R7pFLBMh4vx2Hwui%2Fe%2BlOkArdTSMW8kCGPbHfJu%2BUzm1A12FWdWsIAdc2tNe0hNJ1EJbB%2FBIsMwC0SFxrCocbbP7CGsPQ9SY4i%2F5pDR536eP%2BZ06vzIg%3D%3D?filename=arcaea_6.11.0c.apk</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/1Zdp3UKb_rHZx3Jj2TAMtCg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://arcaea-static.lowiro-cdn.net/5%2BilDtTF1z4NZE8Zwi96VWDL9aLDjMvpcpfQ8TJ0KoIxkmx8WZNmY76UkMdH9EEDH36eYRhgrK1II3N8Cvl%2B64rjSuKWU4ygv6VONPZEoXYbnSqODjvtlaMpoQpkfQMgsxSlHyHSgw0fWxlrhQ%3D%3D?filename=arcaea_6.11.0c.apk</t>
+  </si>
+  <si>
+    <t>6.11.0_1208929</t>
+  </si>
+  <si>
+    <t>6.11.0_1208921</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1xyNSeTpqQpXFDhcd0uxZiQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.11.0c_1208929.apk</t>
   </si>
 </sst>
 </file>
@@ -423,13 +435,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,20 +778,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="246.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
@@ -801,369 +814,386 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>102</v>
+      <c r="D2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
-    <hyperlink ref="E3" r:id="rId5" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{0D946CF6-97B9-4C33-A8D2-DE7309CE04A9}"/>
-    <hyperlink ref="E2" r:id="rId6" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{E3F5BC1A-FBA3-4F72-83BD-6393725AFE4C}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{1D60641F-9F3C-4AF2-8E47-0C250005FA91}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{DB78D329-2FDB-4E23-BC81-6801C720DF64}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{645F2658-8B78-4D4A-95FA-F2FE2CE15078}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{CE09FC67-8B7B-4220-A1D2-3D71E15DFD35}"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{0D946CF6-97B9-4C33-A8D2-DE7309CE04A9}"/>
+    <hyperlink ref="E3" r:id="rId6" display="https://github.com/A-Randomm-User/APK-save/releases/download/Arcaea/arcaea_6.10.8c.apk" xr:uid="{E3F5BC1A-FBA3-4F72-83BD-6393725AFE4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
